--- a/Assets/Excel/ExcelGameData.xlsx
+++ b/Assets/Excel/ExcelGameData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\GD_Project\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C5EC75-70B6-4708-AC8A-3128C7A766D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA1F232-4ED4-42F6-860A-447BCF42E0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94E30617-29FC-4B6C-94B6-6122983EB4B7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>사용 시 HP를 소폭 회복한다</t>
   </si>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
   <si>
     <t>value</t>
@@ -641,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,9 +657,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -678,9 +672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -708,9 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -731,9 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1095,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4433BFC5-DAD4-4E3A-9DB6-C6346D345267}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1106,44 +1091,40 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="99.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="99.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.25" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1156,23 +1137,20 @@
         <v>24</v>
       </c>
       <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="38" t="s">
+      <c r="H2" s="34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1185,79 +1163,70 @@
         <v>24</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
         <v>40</v>
       </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
         <v>10</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="22">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23">
+      <c r="E4" s="20">
         <v>60</v>
       </c>
-      <c r="G4" s="24">
+      <c r="F4" s="21">
         <v>10</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="H4" s="35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="11">
         <v>20</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1270,74 +1239,65 @@
         <v>24</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
         <v>40</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="E7" s="20">
         <v>60</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="H7" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="E8" s="11">
         <v>100</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="34" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="H8" s="33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1350,20 +1310,17 @@
         <v>24</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
         <v>100</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+    <row r="10" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1376,99 +1333,87 @@
         <v>24</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
         <v>100</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="G10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="H10" s="34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+    <row r="11" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
+      <c r="E11" s="20">
         <v>100</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="36" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="26">
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>2</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="31">
+      <c r="E12" s="27">
         <v>60</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="H12" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="H13" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1480,68 +1425,59 @@
       <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="H15" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="H16" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1553,18 +1489,15 @@
       <c r="D17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1576,70 +1509,61 @@
       <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="H18" s="34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>2</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="22">
-        <v>0</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="H19" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>3</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
+      <c r="E20" s="11">
         <v>46</v>
       </c>
-      <c r="G20" s="14">
+      <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="37" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1652,21 +1576,18 @@
         <v>36</v>
       </c>
       <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
         <v>120</v>
       </c>
-      <c r="G21" s="3">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="38" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1679,21 +1600,18 @@
         <v>36</v>
       </c>
       <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
         <v>38</v>
       </c>
-      <c r="G22" s="3">
+      <c r="F22" s="3">
         <v>0.8</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="38" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1706,21 +1624,18 @@
         <v>36</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
         <v>22</v>
       </c>
-      <c r="G23" s="3">
+      <c r="F23" s="3">
         <v>0.5</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="38" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1733,21 +1648,18 @@
         <v>36</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
         <v>35</v>
       </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="38" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1760,21 +1672,18 @@
         <v>36</v>
       </c>
       <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
         <v>25</v>
       </c>
-      <c r="G25" s="3">
+      <c r="F25" s="3">
         <v>0.8</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="38" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1787,21 +1696,18 @@
         <v>36</v>
       </c>
       <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
         <v>15</v>
       </c>
-      <c r="G26" s="3">
+      <c r="F26" s="3">
         <v>0.5</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="38" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1814,21 +1720,18 @@
         <v>36</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
         <v>30</v>
       </c>
-      <c r="G27" s="3">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="38" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -1841,73 +1744,64 @@
         <v>36</v>
       </c>
       <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
         <v>20</v>
       </c>
-      <c r="G28" s="3">
+      <c r="F28" s="3">
         <v>0.8</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="38" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>1</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="22">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23">
+      <c r="E29" s="20">
         <v>12</v>
       </c>
-      <c r="G29" s="24">
+      <c r="F29" s="21">
         <v>0.5</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="39" t="s">
+      <c r="G29" s="22"/>
+      <c r="H29" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="H30" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1919,18 +1813,15 @@
       <c r="D31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="G31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="H31" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1942,18 +1833,15 @@
       <c r="D32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17" t="s">
+      <c r="G32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="38" t="s">
+      <c r="H32" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="16">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -1965,38 +1853,32 @@
       <c r="D33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17" t="s">
+      <c r="G33" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="38" t="s">
+      <c r="H33" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18">
+    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>4</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="H34" s="35" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Assets/Excel/ExcelGameData.xlsx
+++ b/Assets/Excel/ExcelGameData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\GD_Project\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA1F232-4ED4-42F6-860A-447BCF42E0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CDD65-530C-4A82-9C66-9EF84A23FC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94E30617-29FC-4B6C-94B6-6122983EB4B7}"/>
+    <workbookView xWindow="4335" yWindow="495" windowWidth="23040" windowHeight="14295" activeTab="1" xr2:uid="{94E30617-29FC-4B6C-94B6-6122983EB4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB_KR" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="EnemyInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
   <si>
     <t>사용 시 HP를 소폭 회복한다</t>
   </si>
@@ -298,6 +298,164 @@
   </si>
   <si>
     <t>dropDes</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아자라이트</t>
+  </si>
+  <si>
+    <t>위리놈</t>
+  </si>
+  <si>
+    <t>플뤼톤</t>
+  </si>
+  <si>
+    <t>라이칸슬로프</t>
+  </si>
+  <si>
+    <t>가고일</t>
+  </si>
+  <si>
+    <t>이두상어</t>
+  </si>
+  <si>
+    <t>세이렌</t>
+  </si>
+  <si>
+    <t>맨티스</t>
+  </si>
+  <si>
+    <t>유절리나이트</t>
+  </si>
+  <si>
+    <t>이프리트</t>
+  </si>
+  <si>
+    <t>파이어 골렘</t>
+  </si>
+  <si>
+    <t>헬하운드</t>
+  </si>
+  <si>
+    <t>마그마 슬라임</t>
+  </si>
+  <si>
+    <t>리치</t>
+  </si>
+  <si>
+    <t>데스나이트</t>
+  </si>
+  <si>
+    <t>디멘터</t>
+  </si>
+  <si>
+    <t>스켈레톤</t>
+  </si>
+  <si>
+    <t>그리핀</t>
+  </si>
+  <si>
+    <t>실프</t>
+  </si>
+  <si>
+    <t>제기온</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>에퀴테스</t>
+  </si>
+  <si>
+    <t>샐러맨더</t>
+  </si>
+  <si>
+    <t>에밀리아, 루카스</t>
+  </si>
+  <si>
+    <t>하르퓌아</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>마신 1페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마신 2페이즈</t>
+  </si>
+  <si>
+    <t>마신 3페이즈</t>
+  </si>
+  <si>
+    <t>마신 4페이즈</t>
+  </si>
+  <si>
+    <t>KR_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdyrh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종</t>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -329,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -632,13 +790,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +1089,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4433BFC5-DAD4-4E3A-9DB6-C6346D345267}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1895,14 +2269,777 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA21197-0017-4898-BEE2-2B415414993D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="42">
+        <v>60</v>
+      </c>
+      <c r="H2" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52">
+        <v>2</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="40">
+        <v>80</v>
+      </c>
+      <c r="H3" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="52">
+        <v>3</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="40">
+        <v>90</v>
+      </c>
+      <c r="H4" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="53">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="41">
+        <v>120</v>
+      </c>
+      <c r="H5" s="45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="42">
+        <v>40</v>
+      </c>
+      <c r="H6" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="52">
+        <v>6</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="40">
+        <v>40</v>
+      </c>
+      <c r="H7" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="52">
+        <v>7</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="40">
+        <v>40</v>
+      </c>
+      <c r="H8" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="53">
+        <v>8</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="41">
+        <v>40</v>
+      </c>
+      <c r="H9" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="42">
+        <v>35</v>
+      </c>
+      <c r="H10" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="52">
+        <v>10</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="40">
+        <v>25</v>
+      </c>
+      <c r="H11" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="52">
+        <v>11</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="40">
+        <v>15</v>
+      </c>
+      <c r="H12" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="53">
+        <v>12</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="41">
+        <v>20</v>
+      </c>
+      <c r="H13" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="51">
+        <v>13</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="42">
+        <v>25</v>
+      </c>
+      <c r="H14" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="52">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="40">
+        <v>25</v>
+      </c>
+      <c r="H15" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="52">
+        <v>15</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="40">
+        <v>5</v>
+      </c>
+      <c r="H16" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="53">
+        <v>16</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="41">
+        <v>2</v>
+      </c>
+      <c r="H17" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="51">
+        <v>17</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="42">
+        <v>35</v>
+      </c>
+      <c r="H18" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="52">
+        <v>18</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="40">
+        <v>20</v>
+      </c>
+      <c r="H19" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="52">
+        <v>19</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="40">
+        <v>2</v>
+      </c>
+      <c r="H20" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="53">
+        <v>20</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="41">
+        <v>15</v>
+      </c>
+      <c r="H21" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="51">
+        <v>21</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="42">
+        <v>60</v>
+      </c>
+      <c r="H22" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="52">
+        <v>22</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="40">
+        <v>30</v>
+      </c>
+      <c r="H23" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="52">
+        <v>23</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="40">
+        <v>15</v>
+      </c>
+      <c r="H24" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="53">
+        <v>24</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="41">
+        <v>30</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="51">
+        <v>25</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="42">
+        <v>30</v>
+      </c>
+      <c r="H26" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="52">
+        <v>26</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="40">
+        <v>45</v>
+      </c>
+      <c r="H27" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="52">
+        <v>27</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="40">
+        <v>20</v>
+      </c>
+      <c r="H28" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="53">
+        <v>28</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="41">
+        <v>13</v>
+      </c>
+      <c r="H29" s="45">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Excel/ExcelGameData.xlsx
+++ b/Assets/Excel/ExcelGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\UnityFile\GD_Project\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CDD65-530C-4A82-9C66-9EF84A23FC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E566003-85F0-4B5B-BFE8-A97C36A05BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="495" windowWidth="23040" windowHeight="14295" activeTab="1" xr2:uid="{94E30617-29FC-4B6C-94B6-6122983EB4B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{94E30617-29FC-4B6C-94B6-6122983EB4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB_KR" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="152">
   <si>
     <t>사용 시 HP를 소폭 회복한다</t>
   </si>
@@ -213,42 +213,6 @@
     <t>바람지역 보스 처치 시 획득 가능</t>
   </si>
   <si>
-    <t>맵에서 획득</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 1 / 설익은 열매 * 2 / 설익은 꽃 * 1</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 2 / 설익은 열매 * 4 / 설익은 꽃 * 2</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 3 / 설익은 열매 * 6 / 설익은 꽃 * 3</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 1 / 설익은 열매 * 1 / 설익은 꽃 * 2</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 2 / 설익은 열매 * 2 / 설익은 꽃 * 4</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 3 / 설익은 열매 * 3 / 설익은 꽃 * 6</t>
-  </si>
-  <si>
-    <t>상급 HP 포션 * 1 / 상급 MP 포션 * 1 / 블루벨 * 3</t>
-  </si>
-  <si>
-    <t>상급 HP 포션 * 1 / 상급 MP 포션 * 1 / 블러디메리 * 3</t>
-  </si>
-  <si>
-    <t>상급 HP 포션 * 1 / 상급 MP 포션 * 1 / 우담바라 * 3</t>
-  </si>
-  <si>
-    <t>상급 HP 포션 * 1 / 상급 MP 포션 * 1 / 아네모네 * 3</t>
-  </si>
-  <si>
-    <t>나뭇가지 * 2 / 우담바라 * 3</t>
-  </si>
-  <si>
     <t>아무지역의 수풀을 공격 시 획득 가능</t>
   </si>
   <si>
@@ -271,9 +235,6 @@
   </si>
   <si>
     <t>최종보스 열쇠 조합에 사용됨</t>
-  </si>
-  <si>
-    <t>바다의 정수 * 1 / 드래곤하트 * 1 / 신상 * 1 / 하피의 알 * 1</t>
   </si>
   <si>
     <t>code</t>
@@ -390,9 +351,6 @@
     <t>샐러맨더</t>
   </si>
   <si>
-    <t>에밀리아, 루카스</t>
-  </si>
-  <si>
     <t>하르퓌아</t>
   </si>
   <si>
@@ -423,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdasd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KR_area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdyrh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최종</t>
   </si>
   <si>
@@ -455,6 +405,129 @@
   </si>
   <si>
     <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equithes</t>
+  </si>
+  <si>
+    <t>Salamander</t>
+  </si>
+  <si>
+    <t>Emilia &amp; Lucas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에밀리아 &amp; 루카스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harpua</t>
+  </si>
+  <si>
+    <t>The Devil phase 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Devil phase 2</t>
+  </si>
+  <si>
+    <t>The Devil phase 3</t>
+  </si>
+  <si>
+    <t>The Devil phase 4</t>
+  </si>
+  <si>
+    <t>Seiren</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>Usual Night</t>
+  </si>
+  <si>
+    <t>Ifrit</t>
+  </si>
+  <si>
+    <t>Fire Golem</t>
+  </si>
+  <si>
+    <t>Hellhound</t>
+  </si>
+  <si>
+    <t>magma slime</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Death Knight</t>
+  </si>
+  <si>
+    <t>Dementor</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>silph</t>
+  </si>
+  <si>
+    <t>Azalite</t>
+  </si>
+  <si>
+    <t>xegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pluton</t>
+  </si>
+  <si>
+    <t>Lycanslope</t>
+  </si>
+  <si>
+    <t>Serberushark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wirinom</t>
+  </si>
+  <si>
+    <t>gargoyle</t>
+  </si>
+  <si>
+    <t>조합을 통해 획득</t>
+  </si>
+  <si>
+    <t>조합을 통해 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전에서 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +560,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -964,13 +1037,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,9 +1178,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,9 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,9 +1214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,6 +1221,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1454,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4433BFC5-DAD4-4E3A-9DB6-C6346D345267}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1472,29 +1574,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>82</v>
+      <c r="A1" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1519,8 +1621,8 @@
       <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>55</v>
+      <c r="H2" s="33" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1546,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1572,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1595,8 +1697,8 @@
       <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>58</v>
+      <c r="H5" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,7 +1721,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1642,8 +1744,8 @@
       <c r="G7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>60</v>
+      <c r="H7" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1667,7 +1769,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1690,7 +1792,7 @@
         <v>49</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -1713,7 +1815,7 @@
         <v>47</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1737,7 +1839,7 @@
         <v>46</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1760,8 +1862,8 @@
       <c r="G12" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="36" t="s">
-        <v>65</v>
+      <c r="H12" s="54" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1783,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1803,7 +1905,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1825,7 +1927,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1847,7 +1949,7 @@
         <v>45</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1867,7 +1969,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1887,7 +1989,7 @@
         <v>45</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1909,7 +2011,7 @@
         <v>45</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2029,7 +2131,7 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="34" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2053,7 +2155,7 @@
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="34" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2077,7 +2179,7 @@
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="34" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2101,7 +2203,7 @@
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="34" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2125,7 +2227,7 @@
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="34" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2149,7 +2251,7 @@
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="35" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2168,10 +2270,10 @@
       <c r="E30" s="11"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2188,7 +2290,7 @@
         <v>42</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>50</v>
@@ -2208,7 +2310,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>51</v>
@@ -2228,7 +2330,7 @@
         <v>42</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>52</v>
@@ -2250,7 +2352,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
       <c r="G34" s="22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H34" s="35" t="s">
         <v>53</v>
@@ -2271,771 +2373,771 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA21197-0017-4898-BEE2-2B415414993D}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="41">
+        <v>60</v>
+      </c>
+      <c r="H2" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="39">
+        <v>80</v>
+      </c>
+      <c r="H3" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>3</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="39">
+        <v>90</v>
+      </c>
+      <c r="H4" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="40">
+        <v>120</v>
+      </c>
+      <c r="H5" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="41">
+        <v>40</v>
+      </c>
+      <c r="H6" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="39">
+        <v>40</v>
+      </c>
+      <c r="H7" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="39">
+        <v>40</v>
+      </c>
+      <c r="H8" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50">
+        <v>8</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="40">
+        <v>40</v>
+      </c>
+      <c r="H9" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="41">
+        <v>35</v>
+      </c>
+      <c r="H10" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>10</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="39">
+        <v>25</v>
+      </c>
+      <c r="H11" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
+        <v>11</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="39">
+        <v>15</v>
+      </c>
+      <c r="H12" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50">
+        <v>12</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="40">
+        <v>20</v>
+      </c>
+      <c r="H13" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="48">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="41">
+        <v>25</v>
+      </c>
+      <c r="H14" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="C15" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="39">
+        <v>25</v>
+      </c>
+      <c r="H15" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
+        <v>15</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="39">
+        <v>5</v>
+      </c>
+      <c r="H16" s="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="50">
+        <v>16</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="40">
+        <v>2</v>
+      </c>
+      <c r="H17" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="41">
+        <v>35</v>
+      </c>
+      <c r="H18" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
+        <v>18</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="39">
+        <v>20</v>
+      </c>
+      <c r="H19" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
+        <v>19</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="39">
+        <v>2</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="50">
+        <v>20</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="40">
+        <v>15</v>
+      </c>
+      <c r="H21" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="48">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="41">
+        <v>60</v>
+      </c>
+      <c r="H22" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="49">
+        <v>22</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="39">
+        <v>30</v>
+      </c>
+      <c r="H23" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49">
+        <v>23</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="39">
+        <v>15</v>
+      </c>
+      <c r="H24" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="50">
+        <v>24</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="40">
+        <v>30</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="48">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="41">
+        <v>30</v>
+      </c>
+      <c r="H26" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="49">
+        <v>26</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="39">
+        <v>45</v>
+      </c>
+      <c r="H27" s="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="49">
+        <v>27</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="39">
+        <v>20</v>
+      </c>
+      <c r="H28" s="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="50">
+        <v>28</v>
+      </c>
+      <c r="B29" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51">
-        <v>1</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="42">
-        <v>60</v>
-      </c>
-      <c r="H2" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="40">
-        <v>80</v>
-      </c>
-      <c r="H3" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="40">
-        <v>90</v>
-      </c>
-      <c r="H4" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53">
-        <v>4</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="41">
-        <v>120</v>
-      </c>
-      <c r="H5" s="45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="C29" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="42">
-        <v>40</v>
-      </c>
-      <c r="H6" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
-        <v>6</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="40">
-        <v>40</v>
-      </c>
-      <c r="H7" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
-        <v>7</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="40">
-        <v>40</v>
-      </c>
-      <c r="H8" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53">
-        <v>8</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="41">
-        <v>40</v>
-      </c>
-      <c r="H9" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51">
-        <v>9</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="42">
-        <v>35</v>
-      </c>
-      <c r="H10" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52">
-        <v>10</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="40">
-        <v>25</v>
-      </c>
-      <c r="H11" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52">
-        <v>11</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="40">
-        <v>15</v>
-      </c>
-      <c r="H12" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="53">
-        <v>12</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="41">
-        <v>20</v>
-      </c>
-      <c r="H13" s="45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="F29" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="40">
         <v>13</v>
       </c>
-      <c r="B14" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G14" s="42">
-        <v>25</v>
-      </c>
-      <c r="H14" s="43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="52">
-        <v>14</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="40">
-        <v>25</v>
-      </c>
-      <c r="H15" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="52">
-        <v>15</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="40">
-        <v>5</v>
-      </c>
-      <c r="H16" s="44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="53">
-        <v>16</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="41">
-        <v>2</v>
-      </c>
-      <c r="H17" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="51">
-        <v>17</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="42">
-        <v>35</v>
-      </c>
-      <c r="H18" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="52">
-        <v>18</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="40">
-        <v>20</v>
-      </c>
-      <c r="H19" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="52">
-        <v>19</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="40">
-        <v>2</v>
-      </c>
-      <c r="H20" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="53">
-        <v>20</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="41">
-        <v>15</v>
-      </c>
-      <c r="H21" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51">
-        <v>21</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="42">
-        <v>60</v>
-      </c>
-      <c r="H22" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52">
-        <v>22</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="40">
-        <v>30</v>
-      </c>
-      <c r="H23" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52">
-        <v>23</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="40">
-        <v>15</v>
-      </c>
-      <c r="H24" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="53">
-        <v>24</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="41">
-        <v>30</v>
-      </c>
-      <c r="H25" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51">
-        <v>25</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="42">
-        <v>30</v>
-      </c>
-      <c r="H26" s="43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52">
-        <v>26</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="40">
-        <v>45</v>
-      </c>
-      <c r="H27" s="44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52">
-        <v>27</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="40">
-        <v>20</v>
-      </c>
-      <c r="H28" s="44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="53">
-        <v>28</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="41">
-        <v>13</v>
-      </c>
-      <c r="H29" s="45">
+      <c r="H29" s="44">
         <v>2</v>
       </c>
     </row>
